--- a/biology/Biochimie/Axillarine/Axillarine.xlsx
+++ b/biology/Biochimie/Axillarine/Axillarine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'axillarine est un composé organique de la famille des flavonols O-méthylés, un type de flavonoïdes. Elle est naturellement présente dans Pulicaria crispa, Filifolium sibiricum, Inula britannica[2], Wyethia bolanderi, Balsamorhiza macrophylla[3] et Tanacetum vulgare [4]. 
-Elle est également synthétisable[5].
+L'axillarine est un composé organique de la famille des flavonols O-méthylés, un type de flavonoïdes. Elle est naturellement présente dans Pulicaria crispa, Filifolium sibiricum, Inula britannica, Wyethia bolanderi, Balsamorhiza macrophylla et Tanacetum vulgare . 
+Elle est également synthétisable.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Hétérosides</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'axillarine 7-O-β-D-glucoside est présent dans Tagetes mendocina, une plante médicinale très utilisée dans les provinces andines de l'Argentine[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'axillarine 7-O-β-D-glucoside est présent dans Tagetes mendocina, une plante médicinale très utilisée dans les provinces andines de l'Argentine.
 </t>
         </is>
       </c>
